--- a/_KeyStore/details.xlsx
+++ b/_KeyStore/details.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2160" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
